--- a/pred_ohlcv/54_21/2019-10-31 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ETZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1544775.600649227</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1542127.086849227</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1479210.649749227</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1487642.520449227</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1623789.552115734</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1732185.916327053</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2194493.341027054</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2398528.479927054</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2881347.801527054</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2511926.739512459</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2541651.821212459</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2437779.922212459</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2315744.861412459</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2129411.931012459</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2178175.666712459</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2593448.191556115</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2458472.113656115</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2727065.231710385</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2615751.990310385</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3054197.506510385</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3031108.113810385</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3021075.113810385</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2953320.687910384</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2710736.687910384</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2748360.943766931</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1697801.547966931</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1697811.547966931</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1645352.162966931</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1305331.283953904</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1300840.650353904</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1315780.114053904</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1501459.876053904</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1494771.573853904</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1735477.712153904</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1737108.294553904</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1720611.711853904</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1706761.327253904</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1706761.327253904</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1681180.557453905</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1680969.557453905</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1694670.726253905</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1694670.726253905</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1694548.579253905</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1705500.509853905</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1665490.509853905</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1665639.840853905</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1665617.125253905</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1665617.125253905</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1665667.794253905</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1669270.182753904</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1687406.773253904</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1779079.641153904</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1765080.152853904</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1842119.254753904</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1842119.254753904</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1841704.254753904</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1807763.511353904</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1776067.754753904</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1148149.702253904</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1168176.160153904</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1729364.445253904</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1785943.485749426</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1785933.485749426</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1785923.485749426</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1796427.334549426</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1796415.334549426</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1787517.757949426</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1713253.079149426</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1647109.389049426</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ETZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1544775.600649227</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1542127.086849227</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1479210.649749227</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1487642.520449227</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1623789.552115734</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1732185.916327053</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2194493.341027054</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2398528.479927054</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2881347.801527054</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2511926.739512459</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2541651.821212459</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2437779.922212459</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2315744.861412459</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2129411.931012459</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2178175.666712459</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2812073.249056115</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2593448.191556115</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2615751.990310385</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3054197.506510385</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3031108.113810385</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3021075.113810385</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2953320.687910384</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2710736.687910384</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2748360.943766931</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1697801.547966931</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1697811.547966931</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1305331.283953904</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1300840.650353904</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1666843.511853904</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1686022.399353904</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1686002.399353904</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1708021.053053904</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1696242.078753904</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1710757.440853904</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1735487.712153904</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1776067.754753904</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1605323.918453904</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1148149.702253904</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1168176.160153904</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1729364.445253904</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1785943.485749426</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1785933.485749426</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1785923.485749426</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1796427.334549426</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1796415.334549426</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1787517.757949426</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1713253.079149426</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1647109.389049426</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
